--- a/ELEC374 - MP1 values.xlsx
+++ b/ELEC374 - MP1 values.xlsx
@@ -8,18 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20mvdp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0C6AD66-0C3D-4B7A-B4D1-53919BC3C2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05295C45-7158-4ED4-866C-EFA16CA72B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{19EE9F90-CEB5-4E61-8070-F0413C049FF5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{19EE9F90-CEB5-4E61-8070-F0413C049FF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$AE$20</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$AE$20</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -40,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Matrix Width</t>
   </si>
@@ -64,6 +59,18 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>TW = 5</t>
+  </si>
+  <si>
+    <t>TW = 10</t>
+  </si>
+  <si>
+    <t>TW = 25</t>
+  </si>
+  <si>
+    <t>TW = 2</t>
   </si>
 </sst>
 </file>
@@ -8460,22 +8467,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4331D87F-9290-4CC1-84D0-84F56F92A5F9}">
-  <dimension ref="C2:R128"/>
+  <dimension ref="C2:X128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="23.53125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="21.1328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.73046875" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:18" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -8513,7 +8520,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="3:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>100</v>
       </c>
@@ -8553,8 +8560,23 @@
       <c r="R3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="T3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W3" t="s">
+        <v>9</v>
+      </c>
+      <c r="X3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>100</v>
       </c>
@@ -8594,8 +8616,23 @@
       <c r="R4">
         <v>1.92048</v>
       </c>
-    </row>
-    <row r="5" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="T4">
+        <v>100</v>
+      </c>
+      <c r="U4">
+        <v>7.7952000000000004</v>
+      </c>
+      <c r="V4">
+        <v>1.3040959999999999</v>
+      </c>
+      <c r="W4">
+        <v>0.80076800000000004</v>
+      </c>
+      <c r="X4">
+        <v>0.712032</v>
+      </c>
+    </row>
+    <row r="5" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>100</v>
       </c>
@@ -8635,8 +8672,23 @@
       <c r="R5">
         <v>1.9037120000000001</v>
       </c>
-    </row>
-    <row r="6" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="T5">
+        <v>100</v>
+      </c>
+      <c r="U5">
+        <v>6.7393599999999996</v>
+      </c>
+      <c r="V5">
+        <v>1.2807040000000001</v>
+      </c>
+      <c r="W5">
+        <v>0.78233600000000003</v>
+      </c>
+      <c r="X5">
+        <v>0.69868799999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>100</v>
       </c>
@@ -8676,8 +8728,23 @@
       <c r="R6">
         <v>1.901184</v>
       </c>
-    </row>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="T6">
+        <v>100</v>
+      </c>
+      <c r="U6">
+        <v>8.2263999999999999</v>
+      </c>
+      <c r="V6">
+        <v>1.28</v>
+      </c>
+      <c r="W6">
+        <v>0.78438399999999997</v>
+      </c>
+      <c r="X6">
+        <v>0.69632000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>100</v>
       </c>
@@ -8717,8 +8784,23 @@
       <c r="R7">
         <v>1.89856</v>
       </c>
-    </row>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="T7">
+        <v>100</v>
+      </c>
+      <c r="U7">
+        <v>6.7337280000000002</v>
+      </c>
+      <c r="V7">
+        <v>1.2943039999999999</v>
+      </c>
+      <c r="W7">
+        <v>0.78233600000000003</v>
+      </c>
+      <c r="X7">
+        <v>0.69606400000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>250</v>
       </c>
@@ -8758,8 +8840,23 @@
       <c r="R8">
         <v>1.9397439999999999</v>
       </c>
-    </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="T8">
+        <v>100</v>
+      </c>
+      <c r="U8">
+        <v>6.7349759999999996</v>
+      </c>
+      <c r="V8">
+        <v>1.279744</v>
+      </c>
+      <c r="W8">
+        <v>0.78224000000000005</v>
+      </c>
+      <c r="X8">
+        <v>1.7765439999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>250</v>
       </c>
@@ -8799,8 +8896,23 @@
       <c r="R9">
         <v>43.192096999999997</v>
       </c>
-    </row>
-    <row r="10" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="T9">
+        <v>250</v>
+      </c>
+      <c r="U9">
+        <v>112.655075</v>
+      </c>
+      <c r="V9">
+        <v>20.342943000000002</v>
+      </c>
+      <c r="W9">
+        <v>7.7034880000000001</v>
+      </c>
+      <c r="X9">
+        <v>8.3222400000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>250</v>
       </c>
@@ -8840,8 +8952,23 @@
       <c r="R10">
         <v>40.626175000000003</v>
       </c>
-    </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="T10">
+        <v>250</v>
+      </c>
+      <c r="U10">
+        <v>83.240448000000001</v>
+      </c>
+      <c r="V10">
+        <v>20.771550999999999</v>
+      </c>
+      <c r="W10">
+        <v>7.6685439999999998</v>
+      </c>
+      <c r="X10">
+        <v>8.2955520000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>250</v>
       </c>
@@ -8881,8 +9008,23 @@
       <c r="R11">
         <v>28.852224</v>
       </c>
-    </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="T11">
+        <v>250</v>
+      </c>
+      <c r="U11">
+        <v>84.441276999999999</v>
+      </c>
+      <c r="V11">
+        <v>16.817345</v>
+      </c>
+      <c r="W11">
+        <v>7.6738559999999998</v>
+      </c>
+      <c r="X11">
+        <v>11.243679999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>250</v>
       </c>
@@ -8922,8 +9064,23 @@
       <c r="R12">
         <v>22.814207</v>
       </c>
-    </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="T12">
+        <v>250</v>
+      </c>
+      <c r="U12">
+        <v>51.855553</v>
+      </c>
+      <c r="V12">
+        <v>20.404257000000001</v>
+      </c>
+      <c r="W12">
+        <v>9.7967999999999993</v>
+      </c>
+      <c r="X12">
+        <v>8.3184000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>500</v>
       </c>
@@ -8963,8 +9120,23 @@
       <c r="R13">
         <v>19.350944999999999</v>
       </c>
-    </row>
-    <row r="14" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="T13">
+        <v>250</v>
+      </c>
+      <c r="U13">
+        <v>43.494945999999999</v>
+      </c>
+      <c r="V13">
+        <v>16.808672000000001</v>
+      </c>
+      <c r="W13">
+        <v>7.6816000000000004</v>
+      </c>
+      <c r="X13">
+        <v>8.2967680000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>500</v>
       </c>
@@ -9004,8 +9176,23 @@
       <c r="R14">
         <v>244.78707900000001</v>
       </c>
-    </row>
-    <row r="15" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="T14">
+        <v>500</v>
+      </c>
+      <c r="U14">
+        <v>498.08685300000002</v>
+      </c>
+      <c r="V14">
+        <v>135.97477699999999</v>
+      </c>
+      <c r="W14">
+        <v>67.804030999999995</v>
+      </c>
+      <c r="X14">
+        <v>73.433791999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>500</v>
       </c>
@@ -9045,8 +9232,23 @@
       <c r="R15">
         <v>127.305725</v>
       </c>
-    </row>
-    <row r="16" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="T15">
+        <v>500</v>
+      </c>
+      <c r="U15">
+        <v>337.86694299999999</v>
+      </c>
+      <c r="V15">
+        <v>115.226524</v>
+      </c>
+      <c r="W15">
+        <v>59.093345999999997</v>
+      </c>
+      <c r="X15">
+        <v>73.253922000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>500</v>
       </c>
@@ -9086,8 +9288,23 @@
       <c r="R16">
         <v>127.49305699999999</v>
       </c>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="T16">
+        <v>500</v>
+      </c>
+      <c r="U16">
+        <v>332.33770800000002</v>
+      </c>
+      <c r="V16">
+        <v>73.752609000000007</v>
+      </c>
+      <c r="W16">
+        <v>62.290241000000002</v>
+      </c>
+      <c r="X16">
+        <v>45.690112999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>500</v>
       </c>
@@ -9127,8 +9344,23 @@
       <c r="R17">
         <v>127.741821</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="T17">
+        <v>500</v>
+      </c>
+      <c r="U17">
+        <v>337.92465199999998</v>
+      </c>
+      <c r="V17">
+        <v>55.515326999999999</v>
+      </c>
+      <c r="W17">
+        <v>60.696831000000003</v>
+      </c>
+      <c r="X17">
+        <v>32.927776000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>1000</v>
       </c>
@@ -9168,8 +9400,23 @@
       <c r="R18">
         <v>126.766335</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="T18">
+        <v>500</v>
+      </c>
+      <c r="U18">
+        <v>334.71224999999998</v>
+      </c>
+      <c r="V18">
+        <v>56.073566</v>
+      </c>
+      <c r="W18">
+        <v>35.610591999999997</v>
+      </c>
+      <c r="X18">
+        <v>32.799773999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>1000</v>
       </c>
@@ -9209,8 +9456,23 @@
       <c r="R19">
         <v>1238.203491</v>
       </c>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="T19">
+        <v>1000</v>
+      </c>
+      <c r="U19">
+        <v>2946.8642580000001</v>
+      </c>
+      <c r="V19">
+        <v>593.70251499999995</v>
+      </c>
+      <c r="W19">
+        <v>354.92584199999999</v>
+      </c>
+      <c r="X19">
+        <v>367.69876099999999</v>
+      </c>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>1000</v>
       </c>
@@ -9250,8 +9512,23 @@
       <c r="R20">
         <v>1208.86853</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="T20">
+        <v>1000</v>
+      </c>
+      <c r="U20">
+        <v>2779.1782229999999</v>
+      </c>
+      <c r="V20">
+        <v>439.83105499999999</v>
+      </c>
+      <c r="W20">
+        <v>213.968414</v>
+      </c>
+      <c r="X20">
+        <v>224.805984</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>1000</v>
       </c>
@@ -9291,8 +9568,23 @@
       <c r="R21">
         <v>1188.155029</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="T21">
+        <v>1000</v>
+      </c>
+      <c r="U21">
+        <v>2794.071289</v>
+      </c>
+      <c r="V21">
+        <v>441.60995500000001</v>
+      </c>
+      <c r="W21">
+        <v>213.33007799999999</v>
+      </c>
+      <c r="X21">
+        <v>225.45488</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>1000</v>
       </c>
@@ -9332,8 +9624,23 @@
       <c r="R22">
         <v>1177.2698969999999</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="T22">
+        <v>1000</v>
+      </c>
+      <c r="U22">
+        <v>2798.993164</v>
+      </c>
+      <c r="V22">
+        <v>438.20788599999997</v>
+      </c>
+      <c r="W22">
+        <v>210.610107</v>
+      </c>
+      <c r="X22">
+        <v>221.80793800000001</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>1500</v>
       </c>
@@ -9373,8 +9680,23 @@
       <c r="R23">
         <v>1313.9183350000001</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="T23">
+        <v>1000</v>
+      </c>
+      <c r="U23">
+        <v>2800.180664</v>
+      </c>
+      <c r="V23">
+        <v>441.67614700000001</v>
+      </c>
+      <c r="W23">
+        <v>217.816452</v>
+      </c>
+      <c r="X23">
+        <v>226.77165199999999</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>1500</v>
       </c>
@@ -9414,8 +9736,23 @@
       <c r="R24">
         <v>4110.0410160000001</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="T24">
+        <v>1500</v>
+      </c>
+      <c r="U24">
+        <v>9755.3642579999996</v>
+      </c>
+      <c r="V24">
+        <v>1660.9708250000001</v>
+      </c>
+      <c r="W24">
+        <v>871.17266800000004</v>
+      </c>
+      <c r="X24">
+        <v>921.50213599999995</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>1500</v>
       </c>
@@ -9455,8 +9792,23 @@
       <c r="R25">
         <v>3996.6103520000001</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="T25">
+        <v>1500</v>
+      </c>
+      <c r="U25">
+        <v>9528.3955079999996</v>
+      </c>
+      <c r="V25">
+        <v>1508.8364260000001</v>
+      </c>
+      <c r="W25">
+        <v>721.27465800000004</v>
+      </c>
+      <c r="X25">
+        <v>760.00494400000002</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>1500</v>
       </c>
@@ -9496,8 +9848,23 @@
       <c r="R26">
         <v>3976.931885</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="T26">
+        <v>1500</v>
+      </c>
+      <c r="U26">
+        <v>9578.4189449999994</v>
+      </c>
+      <c r="V26">
+        <v>1504.6057129999999</v>
+      </c>
+      <c r="W26">
+        <v>715.67932099999996</v>
+      </c>
+      <c r="X26">
+        <v>754.12817399999994</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>1500</v>
       </c>
@@ -9537,16 +9904,46 @@
       <c r="R27">
         <v>3990.3703609999998</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="T27">
+        <v>1500</v>
+      </c>
+      <c r="U27">
+        <v>9577.7714840000008</v>
+      </c>
+      <c r="V27">
+        <v>1506.2307129999999</v>
+      </c>
+      <c r="W27">
+        <v>710.14050299999997</v>
+      </c>
+      <c r="X27">
+        <v>750.33526600000005</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.25">
       <c r="Q28">
         <v>2</v>
       </c>
       <c r="R28">
         <v>4001.4172359999998</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="T28">
+        <v>1500</v>
+      </c>
+      <c r="U28">
+        <v>9637.6464840000008</v>
+      </c>
+      <c r="V28">
+        <v>1505.693237</v>
+      </c>
+      <c r="W28">
+        <v>715.72381600000006</v>
+      </c>
+      <c r="X28">
+        <v>751.16589399999998</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.25">
       <c r="Q29">
         <v>5</v>
       </c>
@@ -9554,7 +9951,7 @@
         <v>0.428896</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.25">
       <c r="Q30">
         <v>5</v>
       </c>
@@ -9562,7 +9959,7 @@
         <v>0.41526400000000002</v>
       </c>
     </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.45">
+    <row r="31" spans="3:24" x14ac:dyDescent="0.25">
       <c r="Q31">
         <v>5</v>
       </c>
@@ -9570,7 +9967,7 @@
         <v>0.409632</v>
       </c>
     </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.45">
+    <row r="32" spans="3:24" x14ac:dyDescent="0.25">
       <c r="Q32">
         <v>5</v>
       </c>
@@ -9578,7 +9975,7 @@
         <v>0.417792</v>
       </c>
     </row>
-    <row r="33" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="33" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q33">
         <v>5</v>
       </c>
@@ -9586,7 +9983,7 @@
         <v>0.40310400000000002</v>
       </c>
     </row>
-    <row r="34" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="34" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q34">
         <v>5</v>
       </c>
@@ -9594,7 +9991,7 @@
         <v>3.589216</v>
       </c>
     </row>
-    <row r="35" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="35" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q35">
         <v>5</v>
       </c>
@@ -9602,7 +9999,7 @@
         <v>6.3820160000000001</v>
       </c>
     </row>
-    <row r="36" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="36" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q36">
         <v>5</v>
       </c>
@@ -9610,7 +10007,7 @@
         <v>3.372512</v>
       </c>
     </row>
-    <row r="37" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="37" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q37">
         <v>5</v>
       </c>
@@ -9618,7 +10015,7 @@
         <v>3.3566720000000001</v>
       </c>
     </row>
-    <row r="38" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="38" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q38">
         <v>5</v>
       </c>
@@ -9626,7 +10023,7 @@
         <v>3.6080640000000002</v>
       </c>
     </row>
-    <row r="39" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="39" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q39">
         <v>5</v>
       </c>
@@ -9634,7 +10031,7 @@
         <v>21.160160000000001</v>
       </c>
     </row>
-    <row r="40" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="40" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q40">
         <v>5</v>
       </c>
@@ -9642,7 +10039,7 @@
         <v>23.072320999999999</v>
       </c>
     </row>
-    <row r="41" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="41" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q41">
         <v>5</v>
       </c>
@@ -9650,7 +10047,7 @@
         <v>23.123936</v>
       </c>
     </row>
-    <row r="42" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="42" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q42">
         <v>5</v>
       </c>
@@ -9658,7 +10055,7 @@
         <v>20.756606999999999</v>
       </c>
     </row>
-    <row r="43" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="43" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q43">
         <v>5</v>
       </c>
@@ -9666,7 +10063,7 @@
         <v>22.810848</v>
       </c>
     </row>
-    <row r="44" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="44" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q44">
         <v>5</v>
       </c>
@@ -9674,7 +10071,7 @@
         <v>199.720291</v>
       </c>
     </row>
-    <row r="45" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="45" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q45">
         <v>5</v>
       </c>
@@ -9682,7 +10079,7 @@
         <v>201.621735</v>
       </c>
     </row>
-    <row r="46" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="46" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q46">
         <v>5</v>
       </c>
@@ -9690,7 +10087,7 @@
         <v>193.398788</v>
       </c>
     </row>
-    <row r="47" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="47" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q47">
         <v>5</v>
       </c>
@@ -9698,7 +10095,7 @@
         <v>193.49267599999999</v>
       </c>
     </row>
-    <row r="48" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="48" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q48">
         <v>5</v>
       </c>
@@ -9706,7 +10103,7 @@
         <v>190.881821</v>
       </c>
     </row>
-    <row r="49" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="49" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q49">
         <v>5</v>
       </c>
@@ -9714,7 +10111,7 @@
         <v>657.80810499999995</v>
       </c>
     </row>
-    <row r="50" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="50" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q50">
         <v>5</v>
       </c>
@@ -9722,7 +10119,7 @@
         <v>658.66973900000005</v>
       </c>
     </row>
-    <row r="51" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="51" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q51">
         <v>5</v>
       </c>
@@ -9730,7 +10127,7 @@
         <v>658.91137700000002</v>
       </c>
     </row>
-    <row r="52" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="52" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q52">
         <v>5</v>
       </c>
@@ -9738,7 +10135,7 @@
         <v>657.81927499999995</v>
       </c>
     </row>
-    <row r="53" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="53" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q53">
         <v>5</v>
       </c>
@@ -9746,7 +10143,7 @@
         <v>658.70281999999997</v>
       </c>
     </row>
-    <row r="54" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="54" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q54">
         <v>10</v>
       </c>
@@ -9754,7 +10151,7 @@
         <v>0.28569600000000001</v>
       </c>
     </row>
-    <row r="55" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="55" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q55">
         <v>10</v>
       </c>
@@ -9762,7 +10159,7 @@
         <v>0.28111999999999998</v>
       </c>
     </row>
-    <row r="56" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="56" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q56">
         <v>10</v>
       </c>
@@ -9770,7 +10167,7 @@
         <v>0.28416000000000002</v>
       </c>
     </row>
-    <row r="57" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="57" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q57">
         <v>10</v>
       </c>
@@ -9778,7 +10175,7 @@
         <v>0.28316799999999998</v>
       </c>
     </row>
-    <row r="58" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="58" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q58">
         <v>10</v>
       </c>
@@ -9786,7 +10183,7 @@
         <v>0.28592000000000001</v>
       </c>
     </row>
-    <row r="59" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="59" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q59">
         <v>10</v>
       </c>
@@ -9794,7 +10191,7 @@
         <v>1.6030720000000001</v>
       </c>
     </row>
-    <row r="60" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="60" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q60">
         <v>10</v>
       </c>
@@ -9802,7 +10199,7 @@
         <v>1.5898239999999999</v>
       </c>
     </row>
-    <row r="61" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="61" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q61">
         <v>10</v>
       </c>
@@ -9810,7 +10207,7 @@
         <v>1.58944</v>
       </c>
     </row>
-    <row r="62" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="62" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q62">
         <v>10</v>
       </c>
@@ -9818,7 +10215,7 @@
         <v>1.5900160000000001</v>
       </c>
     </row>
-    <row r="63" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="63" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q63">
         <v>10</v>
       </c>
@@ -9826,7 +10223,7 @@
         <v>1.591296</v>
       </c>
     </row>
-    <row r="64" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="64" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q64">
         <v>10</v>
       </c>
@@ -9834,7 +10231,7 @@
         <v>10.908480000000001</v>
       </c>
     </row>
-    <row r="65" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="65" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q65">
         <v>10</v>
       </c>
@@ -9842,7 +10239,7 @@
         <v>12.741152</v>
       </c>
     </row>
-    <row r="66" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="66" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q66">
         <v>10</v>
       </c>
@@ -9850,7 +10247,7 @@
         <v>11.132543999999999</v>
       </c>
     </row>
-    <row r="67" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="67" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q67">
         <v>10</v>
       </c>
@@ -9858,7 +10255,7 @@
         <v>11.243392</v>
       </c>
     </row>
-    <row r="68" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="68" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q68">
         <v>10</v>
       </c>
@@ -9866,7 +10263,7 @@
         <v>13.255872</v>
       </c>
     </row>
-    <row r="69" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="69" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q69">
         <v>10</v>
       </c>
@@ -9874,7 +10271,7 @@
         <v>101.441536</v>
       </c>
     </row>
-    <row r="70" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="70" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q70">
         <v>10</v>
       </c>
@@ -9882,7 +10279,7 @@
         <v>107.324867</v>
       </c>
     </row>
-    <row r="71" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="71" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q71">
         <v>10</v>
       </c>
@@ -9890,7 +10287,7 @@
         <v>107.25170900000001</v>
       </c>
     </row>
-    <row r="72" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="72" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q72">
         <v>10</v>
       </c>
@@ -9898,7 +10295,7 @@
         <v>104.131264</v>
       </c>
     </row>
-    <row r="73" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="73" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q73">
         <v>10</v>
       </c>
@@ -9906,7 +10303,7 @@
         <v>99.153923000000006</v>
       </c>
     </row>
-    <row r="74" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="74" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q74">
         <v>10</v>
       </c>
@@ -9914,7 +10311,7 @@
         <v>323.853363</v>
       </c>
     </row>
-    <row r="75" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="75" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q75">
         <v>10</v>
       </c>
@@ -9922,7 +10319,7 @@
         <v>325.28137199999998</v>
       </c>
     </row>
-    <row r="76" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="76" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q76">
         <v>10</v>
       </c>
@@ -9930,7 +10327,7 @@
         <v>332.50100700000002</v>
       </c>
     </row>
-    <row r="77" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="77" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q77">
         <v>10</v>
       </c>
@@ -9938,7 +10335,7 @@
         <v>325.70578</v>
       </c>
     </row>
-    <row r="78" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="78" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q78">
         <v>10</v>
       </c>
@@ -9946,7 +10343,7 @@
         <v>325.93578000000002</v>
       </c>
     </row>
-    <row r="79" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="79" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q79">
         <v>25</v>
       </c>
@@ -9954,7 +10351,7 @@
         <v>0.28176000000000001</v>
       </c>
     </row>
-    <row r="80" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="80" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q80">
         <v>25</v>
       </c>
@@ -9962,7 +10359,7 @@
         <v>0.28060800000000002</v>
       </c>
     </row>
-    <row r="81" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="81" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q81">
         <v>25</v>
       </c>
@@ -9970,7 +10367,7 @@
         <v>0.28217599999999998</v>
       </c>
     </row>
-    <row r="82" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="82" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q82">
         <v>25</v>
       </c>
@@ -9978,7 +10375,7 @@
         <v>0.28214400000000001</v>
       </c>
     </row>
-    <row r="83" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="83" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q83">
         <v>25</v>
       </c>
@@ -9986,7 +10383,7 @@
         <v>0.28089599999999998</v>
       </c>
     </row>
-    <row r="84" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="84" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q84">
         <v>25</v>
       </c>
@@ -9994,7 +10391,7 @@
         <v>1.9339839999999999</v>
       </c>
     </row>
-    <row r="85" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="85" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q85">
         <v>25</v>
       </c>
@@ -10002,7 +10399,7 @@
         <v>1.9330879999999999</v>
       </c>
     </row>
-    <row r="86" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="86" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q86">
         <v>25</v>
       </c>
@@ -10010,7 +10407,7 @@
         <v>2.3315839999999999</v>
       </c>
     </row>
-    <row r="87" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="87" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q87">
         <v>25</v>
       </c>
@@ -10018,7 +10415,7 @@
         <v>3.9526400000000002</v>
       </c>
     </row>
-    <row r="88" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="88" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q88">
         <v>25</v>
       </c>
@@ -10026,7 +10423,7 @@
         <v>1.9302079999999999</v>
       </c>
     </row>
-    <row r="89" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="89" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q89">
         <v>25</v>
       </c>
@@ -10034,7 +10431,7 @@
         <v>14.826879999999999</v>
       </c>
     </row>
-    <row r="90" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="90" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q90">
         <v>25</v>
       </c>
@@ -10042,7 +10439,7 @@
         <v>16.144928</v>
       </c>
     </row>
-    <row r="91" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="91" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q91">
         <v>25</v>
       </c>
@@ -10050,7 +10447,7 @@
         <v>14.548959999999999</v>
       </c>
     </row>
-    <row r="92" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="92" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q92">
         <v>25</v>
       </c>
@@ -10058,7 +10455,7 @@
         <v>15.769216</v>
       </c>
     </row>
-    <row r="93" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="93" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q93">
         <v>25</v>
       </c>
@@ -10066,7 +10463,7 @@
         <v>14.588416</v>
       </c>
     </row>
-    <row r="94" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="94" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q94">
         <v>25</v>
       </c>
@@ -10074,7 +10471,7 @@
         <v>123.056129</v>
       </c>
     </row>
-    <row r="95" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="95" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q95">
         <v>25</v>
       </c>
@@ -10082,7 +10479,7 @@
         <v>121.982849</v>
       </c>
     </row>
-    <row r="96" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="96" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q96">
         <v>25</v>
       </c>
@@ -10090,7 +10487,7 @@
         <v>121.429405</v>
       </c>
     </row>
-    <row r="97" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="97" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q97">
         <v>25</v>
       </c>
@@ -10098,7 +10495,7 @@
         <v>123.088768</v>
       </c>
     </row>
-    <row r="98" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="98" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q98">
         <v>25</v>
       </c>
@@ -10106,7 +10503,7 @@
         <v>124.215294</v>
       </c>
     </row>
-    <row r="99" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="99" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q99">
         <v>25</v>
       </c>
@@ -10114,7 +10511,7 @@
         <v>403.92498799999998</v>
       </c>
     </row>
-    <row r="100" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="100" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q100">
         <v>25</v>
       </c>
@@ -10122,7 +10519,7 @@
         <v>402.68850700000002</v>
       </c>
     </row>
-    <row r="101" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="101" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q101">
         <v>25</v>
       </c>
@@ -10130,7 +10527,7 @@
         <v>404.172302</v>
       </c>
     </row>
-    <row r="102" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="102" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q102">
         <v>25</v>
       </c>
@@ -10138,7 +10535,7 @@
         <v>403.17541499999999</v>
       </c>
     </row>
-    <row r="103" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="103" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q103">
         <v>25</v>
       </c>
@@ -10146,7 +10543,7 @@
         <v>404.19778400000001</v>
       </c>
     </row>
-    <row r="104" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="104" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q104">
         <v>32</v>
       </c>
@@ -10154,7 +10551,7 @@
         <v>0.28345599999999999</v>
       </c>
     </row>
-    <row r="105" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="105" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q105">
         <v>32</v>
       </c>
@@ -10162,7 +10559,7 @@
         <v>0.28425600000000001</v>
       </c>
     </row>
-    <row r="106" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="106" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q106">
         <v>32</v>
       </c>
@@ -10170,7 +10567,7 @@
         <v>0.30736000000000002</v>
       </c>
     </row>
-    <row r="107" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="107" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q107">
         <v>32</v>
       </c>
@@ -10178,7 +10575,7 @@
         <v>0.302624</v>
       </c>
     </row>
-    <row r="108" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="108" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q108">
         <v>32</v>
       </c>
@@ -10186,7 +10583,7 @@
         <v>0.30208000000000002</v>
       </c>
     </row>
-    <row r="109" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="109" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q109">
         <v>32</v>
       </c>
@@ -10194,7 +10591,7 @@
         <v>1.3862719999999999</v>
       </c>
     </row>
-    <row r="110" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="110" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q110">
         <v>32</v>
       </c>
@@ -10202,7 +10599,7 @@
         <v>1.3860159999999999</v>
       </c>
     </row>
-    <row r="111" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="111" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q111">
         <v>32</v>
       </c>
@@ -10210,7 +10607,7 @@
         <v>1.3742080000000001</v>
       </c>
     </row>
-    <row r="112" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="112" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q112">
         <v>32</v>
       </c>
@@ -10218,7 +10615,7 @@
         <v>1.37216</v>
       </c>
     </row>
-    <row r="113" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="113" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q113">
         <v>32</v>
       </c>
@@ -10226,7 +10623,7 @@
         <v>1.370112</v>
       </c>
     </row>
-    <row r="114" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="114" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q114">
         <v>32</v>
       </c>
@@ -10234,7 +10631,7 @@
         <v>9.0287679999999995</v>
       </c>
     </row>
-    <row r="115" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="115" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q115">
         <v>32</v>
       </c>
@@ -10242,7 +10639,7 @@
         <v>10.797056</v>
       </c>
     </row>
-    <row r="116" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="116" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q116">
         <v>32</v>
       </c>
@@ -10250,7 +10647,7 @@
         <v>9.2598400000000005</v>
       </c>
     </row>
-    <row r="117" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="117" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q117">
         <v>32</v>
       </c>
@@ -10258,7 +10655,7 @@
         <v>9.2448320000000006</v>
       </c>
     </row>
-    <row r="118" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="118" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q118">
         <v>32</v>
       </c>
@@ -10266,7 +10663,7 @@
         <v>10.8376</v>
       </c>
     </row>
-    <row r="119" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="119" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q119">
         <v>32</v>
       </c>
@@ -10274,7 +10671,7 @@
         <v>81.792541999999997</v>
       </c>
     </row>
-    <row r="120" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="120" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q120">
         <v>32</v>
       </c>
@@ -10282,7 +10679,7 @@
         <v>82.879776000000007</v>
       </c>
     </row>
-    <row r="121" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="121" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q121">
         <v>32</v>
       </c>
@@ -10290,7 +10687,7 @@
         <v>82.488990999999999</v>
       </c>
     </row>
-    <row r="122" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="122" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q122">
         <v>32</v>
       </c>
@@ -10298,7 +10695,7 @@
         <v>82.955230999999998</v>
       </c>
     </row>
-    <row r="123" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="123" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q123">
         <v>32</v>
       </c>
@@ -10306,7 +10703,7 @@
         <v>83.795676999999998</v>
       </c>
     </row>
-    <row r="124" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="124" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q124">
         <v>32</v>
       </c>
@@ -10314,7 +10711,7 @@
         <v>257.25201399999997</v>
       </c>
     </row>
-    <row r="125" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="125" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q125">
         <v>32</v>
       </c>
@@ -10322,7 +10719,7 @@
         <v>261.015625</v>
       </c>
     </row>
-    <row r="126" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="126" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q126">
         <v>32</v>
       </c>
@@ -10330,7 +10727,7 @@
         <v>261.32882699999999</v>
       </c>
     </row>
-    <row r="127" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="127" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q127">
         <v>32</v>
       </c>
@@ -10338,7 +10735,7 @@
         <v>260.864014</v>
       </c>
     </row>
-    <row r="128" spans="17:18" x14ac:dyDescent="0.45">
+    <row r="128" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q128">
         <v>32</v>
       </c>
